--- a/REGULAR/TREASURY/DIMAPILIS ANTHONY A..xlsx
+++ b/REGULAR/TREASURY/DIMAPILIS ANTHONY A..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611D9DFD-AA26-418D-B0F0-7DED0D9B004F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D405DC-56E6-4D0B-A780-EA8C04EA8414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -29,20 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
   <si>
     <t>PERIOD</t>
   </si>
@@ -349,6 +341,9 @@
   </si>
   <si>
     <t>12/16,26/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1039,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICVLARS" dataDxfId="9"/>
@@ -1373,12 +1368,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A91" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1541,7 +1536,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>235.94900000000001</v>
+        <v>238.44900000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1551,7 +1546,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>257</v>
+        <v>259.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3443,7 +3438,9 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="48" t="s">
+        <v>99</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -3459,15 +3456,19 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>44927</v>
+      </c>
       <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
@@ -3475,23 +3476,33 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="A97" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="49">
+        <v>44974</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>44986</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -3507,7 +3518,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45017</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -3523,7 +3536,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45047</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -3539,7 +3554,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45078</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -3555,7 +3572,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45108</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -3571,7 +3590,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45139</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3587,7 +3608,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45170</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3603,7 +3626,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45200</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -3619,7 +3644,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45231</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -3635,7 +3662,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>45261</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -3651,7 +3680,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>45292</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -3667,7 +3698,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>45323</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -3683,7 +3716,9 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>45352</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -3699,7 +3734,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>45383</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -3715,7 +3752,9 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <v>45413</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -3731,7 +3770,9 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>45444</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -3747,7 +3788,9 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>45474</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -3763,7 +3806,9 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>45505</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -3779,7 +3824,9 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <v>45536</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -3795,7 +3842,9 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <v>45566</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -3811,7 +3860,9 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
+      <c r="A118" s="40">
+        <v>45597</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -3827,7 +3878,9 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
+      <c r="A119" s="40">
+        <v>45627</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -3843,7 +3896,9 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+      <c r="A120" s="40">
+        <v>45658</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -3859,7 +3914,9 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <v>45689</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -3875,7 +3932,9 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+      <c r="A122" s="40">
+        <v>45717</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -3891,7 +3950,9 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
+      <c r="A123" s="40">
+        <v>45748</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -3907,7 +3968,9 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
+      <c r="A124" s="40">
+        <v>45778</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -3923,7 +3986,9 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
+      <c r="A125" s="40">
+        <v>45809</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -3939,7 +4004,9 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>45839</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -3955,7 +4022,9 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>45870</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -3971,7 +4040,9 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
+      <c r="A128" s="40">
+        <v>45901</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -3987,7 +4058,9 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
+      <c r="A129" s="40">
+        <v>45931</v>
+      </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -4003,20 +4076,40 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+      <c r="A130" s="40">
+        <v>45962</v>
+      </c>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="40">
+        <v>45992</v>
+      </c>
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4032,7 +4125,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -4049,8 +4142,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                           OIC - HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
